--- a/medicine/Premiers secours et secourisme/Royal_Flying_Doctor_Service/Royal_Flying_Doctor_Service.xlsx
+++ b/medicine/Premiers secours et secourisme/Royal_Flying_Doctor_Service/Royal_Flying_Doctor_Service.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Royal Flying Doctor Service est une organisation de secours en Australie. Elle apporte une aide médicale aux populations isolées du pays, ou qui n'ont pas accès à un hôpital[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Royal Flying Doctor Service est une organisation de secours en Australie. Elle apporte une aide médicale aux populations isolées du pays, ou qui n'ont pas accès à un hôpital.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend John Flynn (25 novembre 1880 - 5 mai 1951) était un pasteur presbytérien et aviateur australien qui a créé le Royal Flying Doctor Service (RFDS), premier service d'ambulances aériennes au monde. 
 En 1917, Flynn envisageait déjà la possibilité de nouvelles technologies, comme la radio et l'aviation, pour fournir un service plus pointu d'aides médicales et il reçut ensuite une lettre d'un pilote australien de la Première Guerre mondiale, Clifford Peel, qui avait entendu parler des projets de Flynn et décrivant les fonctionnalités et les coûts des avions alors disponibles. Cette liste fut publiée dans le magazine de l'église, le début de la collecte de fonds fut considérable pour créer un service médical volant. Le premier vol eut lieu en 1928 à partir de Cloncurry, au Queensland. En 1934, l’Australian Aerial Medical Service était créé et progressivement un réseau national mis en place. 
@@ -544,10 +558,12 @@
           <t>Flotte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En décembre 2019, la flotte se compose de 71 avions[2].
-Anciens appareils</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2019, la flotte se compose de 71 avions.
+</t>
         </is>
       </c>
     </row>
